--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -5,12 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\한국IT직업학교\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$V$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$V$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -558,20 +557,20 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,16 +884,13 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="57.375" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1412,66 +1408,65 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1486,119 +1481,119 @@
       <c r="L3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1715,10 +1710,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="3" max="21" man="1"/>
+    <brk id="7" max="21" man="1"/>
+  </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="9" man="1"/>
-    <brk id="17" max="10" man="1"/>
+    <brk id="1" max="6" man="1"/>
+    <brk id="17" max="6" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -1728,9 +1727,8 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$V$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -885,12 +885,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.375" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1406,25 +1406,25 @@
   <dimension ref="B2:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J7" s="12">
         <v>20</v>
@@ -1728,7 +1728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1406,7 +1406,7 @@
   <dimension ref="B2:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="11">
         <v>50</v>

--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE859CB7-37F7-4D4C-B192-431911603B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="CharStat_Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$V$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$X$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,9 +217,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>능력치</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -223,77 +230,21 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>물리 방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CharIndex</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>마법 방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 소환 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 코스트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 속도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격 속독</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환 속도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환 지속력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령 설치 범위</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 공격 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PhyDef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagDef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EQuipCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,49 +256,104 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SumSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>You</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -395,14 +401,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -429,8 +427,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="BatangChe"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +467,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -505,13 +517,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,52 +576,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,6 +651,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF333F4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -668,6 +743,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -703,6 +795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -956,8 +1065,8 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>CharStat_Table!F4</f>
-        <v>PhyDef</v>
+        <f>CharStat_Table!G4</f>
+        <v>Atk</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -983,9 +1092,9 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>CharStat_Table!G4</f>
-        <v>MagDef</v>
+      <c r="C4" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1013,7 +1122,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>CharStat_Table!H4</f>
-        <v>Atk</v>
+        <v>Def</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -1039,9 +1148,9 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f>CharStat_Table!I4</f>
-        <v>EQuipCost</v>
+      <c r="C6" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1068,8 +1177,8 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>CharStat_Table!J4</f>
-        <v>MoveSpeed</v>
+        <f>CharStat_Table!I4</f>
+        <v>HP</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -1096,8 +1205,8 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>CharStat_Table!K4</f>
-        <v>AtkSpeed</v>
+        <f>CharStat_Table!J4</f>
+        <v>MoveSpeed</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1123,9 +1232,9 @@
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f>CharStat_Table!L4</f>
-        <v>HP</v>
+      <c r="C9" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1151,9 +1260,9 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f>CharStat_Table!M4</f>
-        <v>SumSpeed</v>
+      <c r="C10" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -1179,9 +1288,9 @@
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f>CharStat_Table!N4</f>
-        <v>SumPer</v>
+      <c r="C11" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -1207,9 +1316,9 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f>CharStat_Table!O4</f>
-        <v>SumRange</v>
+      <c r="C12" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -1235,9 +1344,9 @@
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f>CharStat_Table!P4</f>
-        <v>AtkRange</v>
+      <c r="C13" s="1" t="e">
+        <f>CharStat_Table!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -1264,7 +1373,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>CharStat_Table!Q4</f>
+        <f>CharStat_Table!S4</f>
         <v>Sight</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1402,11 +1511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1414,299 +1523,317 @@
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="C4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="K4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="7" t="s">
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="E6" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="17">
+        <v>100500</v>
+      </c>
+      <c r="L6" s="17">
+        <v>100200</v>
+      </c>
+      <c r="M6" s="17">
+        <v>100500</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="15" t="s">
+      <c r="E7" s="8">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="17">
+        <v>100500</v>
+      </c>
+      <c r="L7" s="17">
+        <v>100300</v>
+      </c>
+      <c r="M7" s="17">
+        <v>100600</v>
+      </c>
+      <c r="N7" s="17">
+        <v>100700</v>
+      </c>
+      <c r="O7" s="17">
+        <v>100900</v>
+      </c>
+      <c r="P7" s="17">
+        <v>100600</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="10">
-        <v>10001</v>
-      </c>
-      <c r="F6" s="10">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12">
-        <v>20</v>
-      </c>
-      <c r="K6" s="12">
-        <v>10</v>
-      </c>
-      <c r="L6" s="12">
-        <v>100</v>
-      </c>
-      <c r="M6" s="13">
-        <v>50</v>
-      </c>
-      <c r="N6" s="13">
-        <v>60</v>
-      </c>
-      <c r="O6" s="13">
-        <v>1</v>
-      </c>
-      <c r="P6" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10002</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10">
-        <v>15</v>
-      </c>
-      <c r="I7" s="11">
-        <v>50</v>
-      </c>
-      <c r="J7" s="12">
-        <v>20</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10</v>
-      </c>
-      <c r="L7" s="12">
-        <v>100</v>
-      </c>
-      <c r="M7" s="13">
-        <v>50</v>
-      </c>
-      <c r="N7" s="13">
-        <v>60</v>
-      </c>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
-      <c r="P7" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="8"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,21 +1844,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="6" man="1"/>
-    <brk id="17" max="6" man="1"/>
+    <brk id="19" max="6" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE859CB7-37F7-4D4C-B192-431911603B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B4569-CA5C-4E4B-AA64-60D97F03D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
